--- a/data/User Category Relation Graphs.xlsx
+++ b/data/User Category Relation Graphs.xlsx
@@ -17,13 +17,63 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1A1C1771" hidden="1">Sheet1!$A$1:$C$177</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Range-b493934a-6580-4584-98ee-b44503b33ed1" name="Range" connection="WorksheetConnection_Sheet1!$A$1:$C$177"/>
+        </x15:modelTables>
+      </x15:dataModel>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_Sheet1!$A$1:$C$177" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range-b493934a-6580-4584-98ee-b44503b33ed1" autoDelete="1" usedByAddin="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1A1C1771"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Missing Values</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,12 +87,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,14 +119,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEFCD4"/>
+      <color rgb="FFB8B2B8"/>
+      <color rgb="FFC89DCD"/>
+      <color rgb="FFD298A2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1325,11 +1397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1169762048"/>
-        <c:axId val="-1169760960"/>
+        <c:axId val="-1385468768"/>
+        <c:axId val="-1385474752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1169762048"/>
+        <c:axId val="-1385468768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,13 +1509,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1169760960"/>
+        <c:crossAx val="-1385474752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1169760960"/>
+        <c:axId val="-1385474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1169762048"/>
+        <c:crossAx val="-1385468768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3427,11 +3499,11 @@
         </c:dLbls>
         <c:bubbleScale val="27"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="-1169758784"/>
-        <c:axId val="-1169758240"/>
+        <c:axId val="-1385479104"/>
+        <c:axId val="-1385472032"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="-1169758784"/>
+        <c:axId val="-1385479104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3541,13 +3613,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1169758240"/>
+        <c:crossAx val="-1385472032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1169758240"/>
+        <c:axId val="-1385472032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31"/>
@@ -3657,7 +3729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1169758784"/>
+        <c:crossAx val="-1385479104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3851,6 +3923,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3881,11 +3954,11 @@
             </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -3907,6 +3980,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'[1]User Category Relation Graph'!$A$2:$A$177</c:f>
@@ -5531,11 +5618,11 @@
         </c:dLbls>
         <c:bubbleScale val="15"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="-1376286128"/>
-        <c:axId val="-1376292112"/>
+        <c:axId val="-1385478016"/>
+        <c:axId val="-1385480192"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="-1376286128"/>
+        <c:axId val="-1385478016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5643,13 +5730,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1376292112"/>
+        <c:crossAx val="-1385480192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1376292112"/>
+        <c:axId val="-1385480192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5757,7 +5844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1376286128"/>
+        <c:crossAx val="-1385478016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -7411,16 +7498,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28139</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>558174</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599302</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>55369</xdr:rowOff>
+      <xdr:rowOff>72687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7443,16 +7530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>55162</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83301</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28138</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7475,16 +7562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>530649</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>558789</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>35886</xdr:rowOff>
+      <xdr:rowOff>53204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>479224</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>507363</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>144743</xdr:rowOff>
+      <xdr:rowOff>162061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9461,6 +9548,19 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D177" totalsRowShown="0">
+  <autoFilter ref="A1:D177"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="user"/>
+    <tableColumn id="2" name="category"/>
+    <tableColumn id="3" name="rating"/>
+    <tableColumn id="4" name="Missing Values"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9726,15 +9826,2044 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AL41" sqref="AL41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>28</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>30</v>
+      </c>
+      <c r="D73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <v>21</v>
+      </c>
+      <c r="C92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>20</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>12</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>12</v>
+      </c>
+      <c r="B100">
+        <v>28</v>
+      </c>
+      <c r="C100">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>12</v>
+      </c>
+      <c r="B102">
+        <v>24</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>12</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>13</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>13</v>
+      </c>
+      <c r="B108">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>13</v>
+      </c>
+      <c r="B109">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>13</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>13</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>14</v>
+      </c>
+      <c r="B115">
+        <v>26</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>14</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>14</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>14</v>
+      </c>
+      <c r="B121">
+        <v>22</v>
+      </c>
+      <c r="C121">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>19</v>
+      </c>
+      <c r="C123">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>15</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>15</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>15</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>15</v>
+      </c>
+      <c r="B127">
+        <v>25</v>
+      </c>
+      <c r="C127">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>15</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>15</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>15</v>
+      </c>
+      <c r="B130">
+        <v>28</v>
+      </c>
+      <c r="C130">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>15</v>
+      </c>
+      <c r="B131">
+        <v>22</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>15</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>16</v>
+      </c>
+      <c r="B133">
+        <v>23</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>16</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>16</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>16</v>
+      </c>
+      <c r="B136">
+        <v>15</v>
+      </c>
+      <c r="C136">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>16</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>16</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>16</v>
+      </c>
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>16</v>
+      </c>
+      <c r="B140">
+        <v>26</v>
+      </c>
+      <c r="C140">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>16</v>
+      </c>
+      <c r="B141">
+        <v>18</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>17</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>17</v>
+      </c>
+      <c r="B144">
+        <v>16</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>17</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>17</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>22</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <v>28</v>
+      </c>
+      <c r="C148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>14</v>
+      </c>
+      <c r="C149">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <v>21</v>
+      </c>
+      <c r="C150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>18</v>
+      </c>
+      <c r="B151">
+        <v>13</v>
+      </c>
+      <c r="C151">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>18</v>
+      </c>
+      <c r="B152">
+        <v>19</v>
+      </c>
+      <c r="C152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>18</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>18</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>18</v>
+      </c>
+      <c r="B155">
+        <v>27</v>
+      </c>
+      <c r="C155">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>18</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>18</v>
+      </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
+      <c r="C157">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>18</v>
+      </c>
+      <c r="B158">
+        <v>25</v>
+      </c>
+      <c r="C158">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>18</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>19</v>
+      </c>
+      <c r="B160">
+        <v>15</v>
+      </c>
+      <c r="C160">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>19</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>19</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>19</v>
+      </c>
+      <c r="B164">
+        <v>14</v>
+      </c>
+      <c r="C164">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>19</v>
+      </c>
+      <c r="B165">
+        <v>26</v>
+      </c>
+      <c r="C165">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>19</v>
+      </c>
+      <c r="B166">
+        <v>18</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>19</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>19</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>20</v>
+      </c>
+      <c r="B169">
+        <v>22</v>
+      </c>
+      <c r="C169">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>20</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>20</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>21</v>
+      </c>
+      <c r="D171">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>20</v>
+      </c>
+      <c r="B172">
+        <v>25</v>
+      </c>
+      <c r="C172">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>20</v>
+      </c>
+      <c r="B173">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>20</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>23</v>
+      </c>
+      <c r="D174">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>20</v>
+      </c>
+      <c r="B175">
+        <v>18</v>
+      </c>
+      <c r="C175">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>20</v>
+      </c>
+      <c r="B176">
+        <v>14</v>
+      </c>
+      <c r="C176">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>20</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C177">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{456EFCD6-F714-4E82-AC56-E97781A31973}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{456EFCD6-F714-4E82-AC56-E97781A31973}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C177</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>